--- a/src/test/resources/grid_template.xlsx
+++ b/src/test/resources/grid_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BB44E9-9F54-47CE-AD4A-76DFDDEEE995}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE606A-CCEE-4161-8DBB-FEFBE8BFECBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,10 +181,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,8 +550,6 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
